--- a/escena_W204.xlsx
+++ b/escena_W204.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdmed\Downloads\TemporalUniandes\SextoSemestre\Análisis_Inteligente_De_Señales_Y_Sistemas\ProyectoFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E180CA12-4E57-4F03-A7EA-6E126C596803}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EFCDBC-EC47-4CB1-9F0E-F3178664899E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{944E0823-291F-4AD7-8EBC-794DB4737F42}"/>
   </bookViews>
@@ -74,7 +74,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -97,39 +97,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -139,18 +114,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -474,42 +444,42 @@
   <dimension ref="B1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="13"/>
+      <c r="E2" s="9"/>
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="14"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
+      <c r="B3" s="8">
         <v>5.5</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="8">
         <v>1.835</v>
       </c>
       <c r="D3" s="1">
@@ -519,20 +489,20 @@
         <v>0.1</v>
       </c>
       <c r="F3" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="G3" s="5" t="s">
+        <v>2.4</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
+      <c r="B4" s="8">
         <v>5.5</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="8">
         <v>2.8050000000000002</v>
       </c>
       <c r="D4" s="1">
@@ -542,20 +512,20 @@
         <v>0.1</v>
       </c>
       <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5">
         <v>11</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
+      <c r="B5" s="8">
         <v>5.5</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="8">
         <v>3.7749999999999999</v>
       </c>
       <c r="D5" s="1">
@@ -565,14 +535,14 @@
         <v>0.1</v>
       </c>
       <c r="F5" s="2">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
+      <c r="B6" s="8">
         <v>-1</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="8">
         <v>3.4049999999999998</v>
       </c>
       <c r="D6" s="1">
@@ -586,10 +556,10 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>5.5</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>-1</v>
       </c>
       <c r="D7" s="2">
@@ -603,10 +573,10 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>5.5</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>7.81</v>
       </c>
       <c r="D8" s="2">
@@ -620,10 +590,10 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>12</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>1.25</v>
       </c>
       <c r="D9" s="2">
@@ -633,235 +603,245 @@
         <v>4</v>
       </c>
       <c r="F9" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="7">
+      <c r="B10" s="3">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3">
+        <v>5.81</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C11" s="3">
         <v>5.81</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D11" s="2">
         <v>1.2</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E11" s="2">
         <v>1.2</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F11" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-    </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/escena_W204.xlsx
+++ b/escena_W204.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdmed\Downloads\TemporalUniandes\SextoSemestre\Análisis_Inteligente_De_Señales_Y_Sistemas\ProyectoFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EFCDBC-EC47-4CB1-9F0E-F3178664899E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3E97EB-B59E-4588-9DAA-2455DD7331AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{944E0823-291F-4AD7-8EBC-794DB4737F42}"/>
   </bookViews>
@@ -74,7 +74,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -97,34 +97,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -441,45 +464,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15280E6B-541A-49E6-BF39-D1593C33B868}">
-  <dimension ref="B1:H40"/>
+  <dimension ref="B1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="7"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="5"/>
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="8">
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
         <v>5.5</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="1">
         <v>1.835</v>
       </c>
       <c r="D3" s="1">
@@ -488,21 +514,21 @@
       <c r="E3" s="1">
         <v>0.1</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>2.4</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="8">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
         <v>5.5</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="1">
         <v>2.8050000000000002</v>
       </c>
       <c r="D4" s="1">
@@ -511,21 +537,21 @@
       <c r="E4" s="1">
         <v>0.1</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>2</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="2">
         <v>11</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="8">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
         <v>5.5</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="1">
         <v>3.7749999999999999</v>
       </c>
       <c r="D5" s="1">
@@ -534,15 +560,15 @@
       <c r="E5" s="1">
         <v>0.1</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>1.6</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="8">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
         <v>-1</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="1">
         <v>3.4049999999999998</v>
       </c>
       <c r="D6" s="1">
@@ -551,297 +577,322 @@
       <c r="E6" s="1">
         <v>22</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
         <v>5.5</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>-1</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>22</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>0.25</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
         <v>5.5</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>7.81</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>33</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>0.25</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
         <v>12</v>
       </c>
-      <c r="C9" s="3">
-        <v>1.25</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="C9" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
         <v>4</v>
       </c>
-      <c r="F9" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="F10" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1">
         <v>5.81</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D11" s="1">
         <v>0.5</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="2">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
+      <c r="F11" s="1">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C13" s="1">
         <v>5.81</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D13" s="1">
         <v>1.2</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E13" s="1">
         <v>1.2</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
